--- a/data/pca/factorExposure/factorExposure_2016-07-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-07-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01150194652674865</v>
+        <v>0.01340042783604486</v>
       </c>
       <c r="C2">
-        <v>-0.05023345164939856</v>
+        <v>0.0416349864903829</v>
       </c>
       <c r="D2">
-        <v>0.03588117628908961</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06222055119025089</v>
+      </c>
+      <c r="E2">
+        <v>-0.06914365321418574</v>
+      </c>
+      <c r="F2">
+        <v>0.06258044060245521</v>
+      </c>
+      <c r="G2">
+        <v>0.0408055915002748</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.05068852540481979</v>
+        <v>0.02977523359043643</v>
       </c>
       <c r="C3">
-        <v>-0.1069059460124876</v>
+        <v>0.07968336235394234</v>
       </c>
       <c r="D3">
-        <v>0.1006139549492779</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.08956012150380847</v>
+      </c>
+      <c r="E3">
+        <v>-0.06811968472358806</v>
+      </c>
+      <c r="F3">
+        <v>-0.01219711953862672</v>
+      </c>
+      <c r="G3">
+        <v>-0.03563953275247839</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06454294083003048</v>
+        <v>0.05856437307488668</v>
       </c>
       <c r="C4">
-        <v>-0.05401634019600463</v>
+        <v>0.06419807535768185</v>
       </c>
       <c r="D4">
-        <v>0.03235535805525178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06066682943455737</v>
+      </c>
+      <c r="E4">
+        <v>-0.06907950890722253</v>
+      </c>
+      <c r="F4">
+        <v>0.07910307974209523</v>
+      </c>
+      <c r="G4">
+        <v>-0.03724252665730805</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.03989866413141459</v>
+        <v>0.03574734067514079</v>
       </c>
       <c r="C6">
-        <v>-0.03900254401333413</v>
+        <v>0.03177826801111881</v>
       </c>
       <c r="D6">
-        <v>0.03126504562698598</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06399261453652869</v>
+      </c>
+      <c r="E6">
+        <v>-0.07240076411864953</v>
+      </c>
+      <c r="F6">
+        <v>0.05694240084205449</v>
+      </c>
+      <c r="G6">
+        <v>-0.02255630879340201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.02227844194235291</v>
+        <v>0.01861010101546579</v>
       </c>
       <c r="C7">
-        <v>-0.04490523788242787</v>
+        <v>0.0389555848950184</v>
       </c>
       <c r="D7">
-        <v>-0.003633723020410897</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03893579947618773</v>
+      </c>
+      <c r="E7">
+        <v>-0.04902395334541672</v>
+      </c>
+      <c r="F7">
+        <v>0.09714640573503702</v>
+      </c>
+      <c r="G7">
+        <v>-0.006073084851348767</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.003888302534072339</v>
+        <v>0.003529388024281605</v>
       </c>
       <c r="C8">
-        <v>-0.03030749919607332</v>
+        <v>0.02883528031207226</v>
       </c>
       <c r="D8">
-        <v>0.02464974153184681</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03164121620561856</v>
+      </c>
+      <c r="E8">
+        <v>-0.05040479244784862</v>
+      </c>
+      <c r="F8">
+        <v>0.03439332330999174</v>
+      </c>
+      <c r="G8">
+        <v>-0.007698061841211501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.03614441091314491</v>
+        <v>0.03743960791862147</v>
       </c>
       <c r="C9">
-        <v>-0.04287792604287769</v>
+        <v>0.05160319138562933</v>
       </c>
       <c r="D9">
-        <v>0.01463540358409155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04376773870945392</v>
+      </c>
+      <c r="E9">
+        <v>-0.05750619393886879</v>
+      </c>
+      <c r="F9">
+        <v>0.08294053837225426</v>
+      </c>
+      <c r="G9">
+        <v>-0.02298904333819862</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.07200201427833565</v>
+        <v>0.09911954990563548</v>
       </c>
       <c r="C10">
-        <v>0.1958079904979999</v>
+        <v>-0.1976694563240741</v>
       </c>
       <c r="D10">
-        <v>-0.007290033459443184</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.004524573929030306</v>
+      </c>
+      <c r="E10">
+        <v>-0.04410447398984061</v>
+      </c>
+      <c r="F10">
+        <v>0.03921219306005224</v>
+      </c>
+      <c r="G10">
+        <v>-0.008330495495614378</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.04225071196040186</v>
+        <v>0.03680580723313207</v>
       </c>
       <c r="C11">
-        <v>-0.0540759165938772</v>
+        <v>0.05102934849046039</v>
       </c>
       <c r="D11">
-        <v>0.01476793111803066</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03449592167685052</v>
+      </c>
+      <c r="E11">
+        <v>-0.01645433803710961</v>
+      </c>
+      <c r="F11">
+        <v>0.06585465841687338</v>
+      </c>
+      <c r="G11">
+        <v>-0.01460535650020183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.04145098567120354</v>
+        <v>0.03756730076482392</v>
       </c>
       <c r="C12">
-        <v>-0.04817131285132733</v>
+        <v>0.04702305177089997</v>
       </c>
       <c r="D12">
-        <v>0.004033849102579325</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02672194300272334</v>
+      </c>
+      <c r="E12">
+        <v>-0.02436486548217547</v>
+      </c>
+      <c r="F12">
+        <v>0.06455737591847656</v>
+      </c>
+      <c r="G12">
+        <v>-0.0112323302028258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01489909645107514</v>
+        <v>0.012528153736218</v>
       </c>
       <c r="C13">
-        <v>-0.0542231009958807</v>
+        <v>0.04613709289920553</v>
       </c>
       <c r="D13">
-        <v>0.01877754977202695</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05797120603446348</v>
+      </c>
+      <c r="E13">
+        <v>-0.08251106175649259</v>
+      </c>
+      <c r="F13">
+        <v>0.09436916885475995</v>
+      </c>
+      <c r="G13">
+        <v>-0.019549174240725</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.006888724514655827</v>
+        <v>0.004733671293912388</v>
       </c>
       <c r="C14">
-        <v>-0.03902762475621998</v>
+        <v>0.0332025900696158</v>
       </c>
       <c r="D14">
-        <v>-0.01229256432106673</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02591919646048517</v>
+      </c>
+      <c r="E14">
+        <v>-0.03643959760038652</v>
+      </c>
+      <c r="F14">
+        <v>0.09216298859177519</v>
+      </c>
+      <c r="G14">
+        <v>0.006709437859023886</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0004232977555932629</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005105191338342832</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.006943790839604708</v>
+      </c>
+      <c r="E15">
+        <v>-0.002624307246798581</v>
+      </c>
+      <c r="F15">
+        <v>0.005523469424481985</v>
+      </c>
+      <c r="G15">
+        <v>0.0001956298521615366</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.03797503844104757</v>
+        <v>0.03438655129430354</v>
       </c>
       <c r="C16">
-        <v>-0.04709198164709785</v>
+        <v>0.04534113005025044</v>
       </c>
       <c r="D16">
-        <v>0.00963485422728564</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02752352760554569</v>
+      </c>
+      <c r="E16">
+        <v>-0.03109902240324268</v>
+      </c>
+      <c r="F16">
+        <v>0.06537877169200167</v>
+      </c>
+      <c r="G16">
+        <v>-0.0004376610957562911</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.02157910213241152</v>
+        <v>0.01673441967390361</v>
       </c>
       <c r="C19">
-        <v>-0.06202367198953133</v>
+        <v>0.04968540875188743</v>
       </c>
       <c r="D19">
-        <v>0.08148796915580665</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.0902239101411209</v>
+      </c>
+      <c r="E19">
+        <v>-0.09753988149196018</v>
+      </c>
+      <c r="F19">
+        <v>0.0683876532048887</v>
+      </c>
+      <c r="G19">
+        <v>0.02603117423344131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01763318882175416</v>
+        <v>0.01394028551290447</v>
       </c>
       <c r="C20">
-        <v>-0.04808969238493174</v>
+        <v>0.0411011206471631</v>
       </c>
       <c r="D20">
-        <v>0.01562337469501484</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04024896388812405</v>
+      </c>
+      <c r="E20">
+        <v>-0.06778094965665094</v>
+      </c>
+      <c r="F20">
+        <v>0.07716789935445052</v>
+      </c>
+      <c r="G20">
+        <v>-0.005099424314222249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01154299350619432</v>
+        <v>0.009633497734516635</v>
       </c>
       <c r="C21">
-        <v>-0.05031304293298</v>
+        <v>0.0454293308823692</v>
       </c>
       <c r="D21">
-        <v>0.03892222826953981</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.06859398281010121</v>
+      </c>
+      <c r="E21">
+        <v>-0.09865347360262977</v>
+      </c>
+      <c r="F21">
+        <v>0.1187033824956858</v>
+      </c>
+      <c r="G21">
+        <v>-0.005412120698377422</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.0002738562222305051</v>
+        <v>0.002384010547678512</v>
       </c>
       <c r="C22">
-        <v>-0.0001241701658411496</v>
+        <v>0.02442442023356133</v>
       </c>
       <c r="D22">
-        <v>0.0006152881491089056</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.03868427827574551</v>
+      </c>
+      <c r="E22">
+        <v>-0.03046424729486551</v>
+      </c>
+      <c r="F22">
+        <v>0.01303858832570518</v>
+      </c>
+      <c r="G22">
+        <v>-0.03972785026958112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.0002738562222305051</v>
+        <v>0.002454674488214282</v>
       </c>
       <c r="C23">
-        <v>-0.0001241701658411496</v>
+        <v>0.02456846169362304</v>
       </c>
       <c r="D23">
-        <v>0.0006152881491089056</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.03834976519544621</v>
+      </c>
+      <c r="E23">
+        <v>-0.03074230788022624</v>
+      </c>
+      <c r="F23">
+        <v>0.01284760059205822</v>
+      </c>
+      <c r="G23">
+        <v>-0.03994146342788828</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.03444807385472747</v>
+        <v>0.03409562029664216</v>
       </c>
       <c r="C24">
-        <v>-0.0508562757744692</v>
+        <v>0.05331921638287057</v>
       </c>
       <c r="D24">
-        <v>0.008404382371725024</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02766032693085304</v>
+      </c>
+      <c r="E24">
+        <v>-0.02843587544221851</v>
+      </c>
+      <c r="F24">
+        <v>0.07465652606569735</v>
+      </c>
+      <c r="G24">
+        <v>-0.008608979666512698</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04831811543644976</v>
+        <v>0.0441850560495985</v>
       </c>
       <c r="C25">
-        <v>-0.06125494670056888</v>
+        <v>0.05710846055748964</v>
       </c>
       <c r="D25">
-        <v>0.0001433580454341526</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02593008934338298</v>
+      </c>
+      <c r="E25">
+        <v>-0.02279827043220952</v>
+      </c>
+      <c r="F25">
+        <v>0.07667891627087081</v>
+      </c>
+      <c r="G25">
+        <v>-0.02516242145306569</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.01515942029488286</v>
+        <v>0.01406243275851857</v>
       </c>
       <c r="C26">
-        <v>-0.01652923170798925</v>
+        <v>0.01785281395905676</v>
       </c>
       <c r="D26">
-        <v>-0.0005398382488552139</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02456892220427515</v>
+      </c>
+      <c r="E26">
+        <v>-0.04016947075327395</v>
+      </c>
+      <c r="F26">
+        <v>0.06486572454537227</v>
+      </c>
+      <c r="G26">
+        <v>0.01416190716037742</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.08657397050848412</v>
+        <v>0.1340321915886268</v>
       </c>
       <c r="C28">
-        <v>0.2374677726256531</v>
+        <v>-0.2474568385389739</v>
       </c>
       <c r="D28">
-        <v>-0.00625620226210455</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01713885439871977</v>
+      </c>
+      <c r="E28">
+        <v>-0.05487932731855066</v>
+      </c>
+      <c r="F28">
+        <v>0.05665431422384729</v>
+      </c>
+      <c r="G28">
+        <v>-0.0198590378613023</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.007437989824860909</v>
+        <v>0.005932202067317989</v>
       </c>
       <c r="C29">
-        <v>-0.03089248184999404</v>
+        <v>0.02888151180571296</v>
       </c>
       <c r="D29">
-        <v>-0.01676295113765091</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.02001464476686366</v>
+      </c>
+      <c r="E29">
+        <v>-0.03725890806057539</v>
+      </c>
+      <c r="F29">
+        <v>0.08630989834349183</v>
+      </c>
+      <c r="G29">
+        <v>-0.006862701246783277</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.04996472556372147</v>
+        <v>0.04280970000918992</v>
       </c>
       <c r="C30">
-        <v>-0.06154604212071606</v>
+        <v>0.06490451296120173</v>
       </c>
       <c r="D30">
-        <v>0.07674576590543</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1098271163050361</v>
+      </c>
+      <c r="E30">
+        <v>-0.06104088703238101</v>
+      </c>
+      <c r="F30">
+        <v>0.08525590974612907</v>
+      </c>
+      <c r="G30">
+        <v>0.01402905274622616</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05402754328736791</v>
+        <v>0.05539833909849936</v>
       </c>
       <c r="C31">
-        <v>-0.03642053331049803</v>
+        <v>0.05607136494821343</v>
       </c>
       <c r="D31">
-        <v>-0.02910561339456108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01245865915158148</v>
+      </c>
+      <c r="E31">
+        <v>-0.06196464947553088</v>
+      </c>
+      <c r="F31">
+        <v>0.0702124806178407</v>
+      </c>
+      <c r="G31">
+        <v>-0.04562950600426741</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.001536068324272974</v>
+        <v>0.004762379056382033</v>
       </c>
       <c r="C32">
-        <v>-0.03869867098197003</v>
+        <v>0.03501577358592298</v>
       </c>
       <c r="D32">
-        <v>0.04202505212467619</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05387593637849525</v>
+      </c>
+      <c r="E32">
+        <v>-0.04175469472677813</v>
+      </c>
+      <c r="F32">
+        <v>0.06550748093996331</v>
+      </c>
+      <c r="G32">
+        <v>0.01063087897966198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.02852613122599644</v>
+        <v>0.02505430620298965</v>
       </c>
       <c r="C33">
-        <v>-0.05943660826508055</v>
+        <v>0.05468591756709304</v>
       </c>
       <c r="D33">
-        <v>0.04715298625852266</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.080464395421585</v>
+      </c>
+      <c r="E33">
+        <v>-0.07249817190573013</v>
+      </c>
+      <c r="F33">
+        <v>0.1158115996028271</v>
+      </c>
+      <c r="G33">
+        <v>-0.01895283787853469</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.04628826185129922</v>
+        <v>0.04152644896352312</v>
       </c>
       <c r="C34">
-        <v>-0.06627462697568</v>
+        <v>0.06405677228849273</v>
       </c>
       <c r="D34">
-        <v>0.01226246357782858</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03483096393262084</v>
+      </c>
+      <c r="E34">
+        <v>-0.002891900857811228</v>
+      </c>
+      <c r="F34">
+        <v>0.07652335067468226</v>
+      </c>
+      <c r="G34">
+        <v>-0.0104136235475849</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01361778854979527</v>
+        <v>0.01311566962851527</v>
       </c>
       <c r="C36">
-        <v>-0.01548702281227633</v>
+        <v>0.01328574511660222</v>
       </c>
       <c r="D36">
-        <v>-0.002414954544307101</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02706337306899233</v>
+      </c>
+      <c r="E36">
+        <v>-0.04670676233515243</v>
+      </c>
+      <c r="F36">
+        <v>0.07214801196911762</v>
+      </c>
+      <c r="G36">
+        <v>-0.008110723306588845</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03082996939306687</v>
+        <v>0.02497024201041265</v>
       </c>
       <c r="C38">
-        <v>-0.02978965933052573</v>
+        <v>0.02363370803242614</v>
       </c>
       <c r="D38">
-        <v>-0.004083381827192638</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0267927216199513</v>
+      </c>
+      <c r="E38">
+        <v>-0.04546058123006499</v>
+      </c>
+      <c r="F38">
+        <v>0.05889635000684891</v>
+      </c>
+      <c r="G38">
+        <v>-0.001742405347377848</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.04666368081499799</v>
+        <v>0.0402156594854251</v>
       </c>
       <c r="C39">
-        <v>-0.06992028632905042</v>
+        <v>0.06812300668850464</v>
       </c>
       <c r="D39">
-        <v>0.02075797703122204</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05501281223349406</v>
+      </c>
+      <c r="E39">
+        <v>-0.03320258480820076</v>
+      </c>
+      <c r="F39">
+        <v>0.08499304925608996</v>
+      </c>
+      <c r="G39">
+        <v>0.01442254738384087</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01385073753988794</v>
+        <v>0.01421662755296177</v>
       </c>
       <c r="C40">
-        <v>-0.05374722880203706</v>
+        <v>0.03967510198714069</v>
       </c>
       <c r="D40">
-        <v>0.02352471487863447</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03745450883866501</v>
+      </c>
+      <c r="E40">
+        <v>-0.07345974076242864</v>
+      </c>
+      <c r="F40">
+        <v>0.07094226532829524</v>
+      </c>
+      <c r="G40">
+        <v>-0.03956172393888804</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01864967519270824</v>
+        <v>0.01800404960680892</v>
       </c>
       <c r="C41">
-        <v>-0.005116283073544113</v>
+        <v>0.007700256256987109</v>
       </c>
       <c r="D41">
-        <v>-0.00246333671682876</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01444308348501068</v>
+      </c>
+      <c r="E41">
+        <v>-0.04980793636423549</v>
+      </c>
+      <c r="F41">
+        <v>0.0601011123483034</v>
+      </c>
+      <c r="G41">
+        <v>-0.0008974750829773047</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.03653873829093001</v>
+        <v>0.02862330966685539</v>
       </c>
       <c r="C43">
-        <v>-0.02238721961261045</v>
+        <v>0.02202578060124464</v>
       </c>
       <c r="D43">
-        <v>0.02102523950997459</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04010344235062272</v>
+      </c>
+      <c r="E43">
+        <v>-0.06053085097237279</v>
+      </c>
+      <c r="F43">
+        <v>0.07036387039433611</v>
+      </c>
+      <c r="G43">
+        <v>-0.02096800293330167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.01559204047790615</v>
+        <v>0.01509950489697481</v>
       </c>
       <c r="C44">
-        <v>-0.06431663424484854</v>
+        <v>0.0512951298018666</v>
       </c>
       <c r="D44">
-        <v>0.01646004920222773</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.04272199536850156</v>
+      </c>
+      <c r="E44">
+        <v>-0.07955438318337979</v>
+      </c>
+      <c r="F44">
+        <v>0.07330833826872253</v>
+      </c>
+      <c r="G44">
+        <v>0.007127496379121452</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.004863457739542023</v>
+        <v>0.007733333280810007</v>
       </c>
       <c r="C46">
-        <v>-0.02253410194345261</v>
+        <v>0.02621874730134026</v>
       </c>
       <c r="D46">
-        <v>-0.02025307800497777</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01151115126856076</v>
+      </c>
+      <c r="E46">
+        <v>-0.04654715838823749</v>
+      </c>
+      <c r="F46">
+        <v>0.09890030148762931</v>
+      </c>
+      <c r="G46">
+        <v>0.0007423294297091634</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.08352065199079788</v>
+        <v>0.08749640588115103</v>
       </c>
       <c r="C47">
-        <v>-0.06565799356393444</v>
+        <v>0.07919019548031088</v>
       </c>
       <c r="D47">
-        <v>-0.02619704442713003</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01729049342642441</v>
+      </c>
+      <c r="E47">
+        <v>-0.06536691605496396</v>
+      </c>
+      <c r="F47">
+        <v>0.0741817186802039</v>
+      </c>
+      <c r="G47">
+        <v>-0.0497090388610805</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.01853034944847806</v>
+        <v>0.01561470577196489</v>
       </c>
       <c r="C48">
-        <v>-0.01309385600179726</v>
+        <v>0.01732711513238878</v>
       </c>
       <c r="D48">
-        <v>-0.0148289957174107</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01673589712054894</v>
+      </c>
+      <c r="E48">
+        <v>-0.05814006791791381</v>
+      </c>
+      <c r="F48">
+        <v>0.08803254836903332</v>
+      </c>
+      <c r="G48">
+        <v>-0.007341835430897317</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.0812661821213924</v>
+        <v>0.0712772669916901</v>
       </c>
       <c r="C50">
-        <v>-0.07309389810995626</v>
+        <v>0.07273271872563254</v>
       </c>
       <c r="D50">
-        <v>-0.02885096657251686</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.003789802527526455</v>
+      </c>
+      <c r="E50">
+        <v>-0.06837716070546672</v>
+      </c>
+      <c r="F50">
+        <v>0.05647247288701344</v>
+      </c>
+      <c r="G50">
+        <v>-0.06910103428763992</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01572060606243441</v>
+        <v>0.01098826733453763</v>
       </c>
       <c r="C51">
-        <v>-0.04904377927984053</v>
+        <v>0.03332675732335495</v>
       </c>
       <c r="D51">
-        <v>0.02518583586403016</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.04975228227479839</v>
+      </c>
+      <c r="E51">
+        <v>-0.03672203944321413</v>
+      </c>
+      <c r="F51">
+        <v>0.07497771057610353</v>
+      </c>
+      <c r="G51">
+        <v>0.0210546391990727</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.08141720313468578</v>
+        <v>0.09384579123303897</v>
       </c>
       <c r="C53">
-        <v>-0.07717812636176319</v>
+        <v>0.08674226607046534</v>
       </c>
       <c r="D53">
-        <v>-0.03713510963501589</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03991692745980725</v>
+      </c>
+      <c r="E53">
+        <v>-0.06277358572229855</v>
+      </c>
+      <c r="F53">
+        <v>0.08528176401465161</v>
+      </c>
+      <c r="G53">
+        <v>-0.06212983945418588</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.02982094367582452</v>
+        <v>0.02761409565608833</v>
       </c>
       <c r="C54">
-        <v>-0.02607114038932293</v>
+        <v>0.02698701170779894</v>
       </c>
       <c r="D54">
-        <v>0.0005964179747697314</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02944353994451314</v>
+      </c>
+      <c r="E54">
+        <v>-0.04604226210667259</v>
+      </c>
+      <c r="F54">
+        <v>0.09641328735585349</v>
+      </c>
+      <c r="G54">
+        <v>-0.00734423892847853</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.07518112019448835</v>
+        <v>0.0851511006017108</v>
       </c>
       <c r="C55">
-        <v>-0.05809801785428368</v>
+        <v>0.06970081190898814</v>
       </c>
       <c r="D55">
-        <v>-0.04631549699968836</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.0476348721827589</v>
+      </c>
+      <c r="E55">
+        <v>-0.04846718553796987</v>
+      </c>
+      <c r="F55">
+        <v>0.0596956064528839</v>
+      </c>
+      <c r="G55">
+        <v>-0.05033962590388633</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1452086842769521</v>
+        <v>0.147422478218906</v>
       </c>
       <c r="C56">
-        <v>-0.09202979341509079</v>
+        <v>0.1043354775868953</v>
       </c>
       <c r="D56">
-        <v>-0.04350247242992702</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04919917465285874</v>
+      </c>
+      <c r="E56">
+        <v>-0.05147568886798332</v>
+      </c>
+      <c r="F56">
+        <v>0.04523830374991487</v>
+      </c>
+      <c r="G56">
+        <v>-0.05850409606307895</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.001568669117740083</v>
+        <v>0.0008295453232574505</v>
       </c>
       <c r="C57">
-        <v>0.00274897843440857</v>
+        <v>-0.001296522635552011</v>
       </c>
       <c r="D57">
-        <v>0.01328489086793331</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.01136328881069325</v>
+      </c>
+      <c r="E57">
+        <v>-0.006413269121689272</v>
+      </c>
+      <c r="F57">
+        <v>0.009536462212084306</v>
+      </c>
+      <c r="G57">
+        <v>-0.001801668147115343</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.05418539713204474</v>
+        <v>0.03027715110036282</v>
       </c>
       <c r="C58">
-        <v>-0.02667061123286805</v>
+        <v>0.03358004537259268</v>
       </c>
       <c r="D58">
-        <v>0.7064274192009649</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.4109311663815781</v>
+      </c>
+      <c r="E58">
+        <v>-0.6544788651389863</v>
+      </c>
+      <c r="F58">
+        <v>-0.554688870147919</v>
+      </c>
+      <c r="G58">
+        <v>0.05951175833952416</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1290976318260844</v>
+        <v>0.1440988328576496</v>
       </c>
       <c r="C59">
-        <v>0.197970869788459</v>
+        <v>-0.1876482336359611</v>
       </c>
       <c r="D59">
-        <v>0.01965299180919677</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03056271964725898</v>
+      </c>
+      <c r="E59">
+        <v>-0.02614168156745679</v>
+      </c>
+      <c r="F59">
+        <v>0.02016619168839037</v>
+      </c>
+      <c r="G59">
+        <v>0.02998418257269105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3109328122449236</v>
+        <v>0.2827178253625354</v>
       </c>
       <c r="C60">
-        <v>-0.08684033326345403</v>
+        <v>0.09869849533075992</v>
       </c>
       <c r="D60">
-        <v>0.1268639929212931</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2180737998343015</v>
+      </c>
+      <c r="E60">
+        <v>0.2683904743094408</v>
+      </c>
+      <c r="F60">
+        <v>-0.09295304304673808</v>
+      </c>
+      <c r="G60">
+        <v>-0.0498957702479593</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.04402161969060023</v>
+        <v>0.04133659823422496</v>
       </c>
       <c r="C61">
-        <v>-0.06540550583862727</v>
+        <v>0.06270936575331638</v>
       </c>
       <c r="D61">
-        <v>0.01522774476109387</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04619726779687329</v>
+      </c>
+      <c r="E61">
+        <v>-0.03730670337073606</v>
+      </c>
+      <c r="F61">
+        <v>0.07599789296853358</v>
+      </c>
+      <c r="G61">
+        <v>-0.01177786395116491</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01593682248165291</v>
+        <v>0.0153899594047367</v>
       </c>
       <c r="C63">
-        <v>-0.0353596801265784</v>
+        <v>0.03253305549288611</v>
       </c>
       <c r="D63">
-        <v>-0.007775522163761028</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02225748406237938</v>
+      </c>
+      <c r="E63">
+        <v>-0.0504261634197229</v>
+      </c>
+      <c r="F63">
+        <v>0.06839781089356596</v>
+      </c>
+      <c r="G63">
+        <v>-0.0271068927894434</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.04871288897162934</v>
+        <v>0.05607055879127144</v>
       </c>
       <c r="C64">
-        <v>-0.04208411989851236</v>
+        <v>0.05444901299540041</v>
       </c>
       <c r="D64">
-        <v>0.002830980182892444</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.007926677971370626</v>
+      </c>
+      <c r="E64">
+        <v>-0.03256892276656286</v>
+      </c>
+      <c r="F64">
+        <v>0.08636224635897098</v>
+      </c>
+      <c r="G64">
+        <v>-0.009601312714561831</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.08804373351616163</v>
+        <v>0.07011107504855787</v>
       </c>
       <c r="C65">
-        <v>-0.03082019395980294</v>
+        <v>0.03239258123011029</v>
       </c>
       <c r="D65">
-        <v>0.05195772572915413</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08666250228170243</v>
+      </c>
+      <c r="E65">
+        <v>-0.03674468142627604</v>
+      </c>
+      <c r="F65">
+        <v>0.007165461685132004</v>
+      </c>
+      <c r="G65">
+        <v>-0.004902940792041662</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.06517439518503659</v>
+        <v>0.05296361511905727</v>
       </c>
       <c r="C66">
-        <v>-0.09983116673205476</v>
+        <v>0.0902770381822154</v>
       </c>
       <c r="D66">
-        <v>0.04401291164826518</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.08225097014309528</v>
+      </c>
+      <c r="E66">
+        <v>-0.03930214086430814</v>
+      </c>
+      <c r="F66">
+        <v>0.08634068863980547</v>
+      </c>
+      <c r="G66">
+        <v>-0.003200337766144595</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05315068821009163</v>
+        <v>0.0468449669032915</v>
       </c>
       <c r="C67">
-        <v>-0.03386170297197728</v>
+        <v>0.03018750954894072</v>
       </c>
       <c r="D67">
-        <v>-0.006712708656383656</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.0132560844617125</v>
+      </c>
+      <c r="E67">
+        <v>-0.0253089160129644</v>
+      </c>
+      <c r="F67">
+        <v>0.04862812868916694</v>
+      </c>
+      <c r="G67">
+        <v>-0.00847154085536689</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.116938736849552</v>
+        <v>0.148954983526572</v>
       </c>
       <c r="C68">
-        <v>0.2826066899191181</v>
+        <v>-0.250926236051664</v>
       </c>
       <c r="D68">
-        <v>-0.0127509831835804</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01842471481179176</v>
+      </c>
+      <c r="E68">
+        <v>-0.04256734092191296</v>
+      </c>
+      <c r="F68">
+        <v>0.01384151088477535</v>
+      </c>
+      <c r="G68">
+        <v>-0.0103470747964738</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.0909432917682723</v>
+        <v>0.08725672888709206</v>
       </c>
       <c r="C69">
-        <v>-0.06445239649747064</v>
+        <v>0.08617708099691572</v>
       </c>
       <c r="D69">
-        <v>-0.03776702191349856</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008825536200549534</v>
+      </c>
+      <c r="E69">
+        <v>-0.04855272410169506</v>
+      </c>
+      <c r="F69">
+        <v>0.09079259189324534</v>
+      </c>
+      <c r="G69">
+        <v>-0.02695370024936995</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1105365357320309</v>
+        <v>0.1419573582082631</v>
       </c>
       <c r="C71">
-        <v>0.2473847392950875</v>
+        <v>-0.2358374424424299</v>
       </c>
       <c r="D71">
-        <v>0.02419198053308213</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.0139725640106416</v>
+      </c>
+      <c r="E71">
+        <v>-0.06258663391680155</v>
+      </c>
+      <c r="F71">
+        <v>0.05446304561332888</v>
+      </c>
+      <c r="G71">
+        <v>-0.03543631439967333</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.09016058572760516</v>
+        <v>0.09816790574493969</v>
       </c>
       <c r="C72">
-        <v>-0.04929886312143747</v>
+        <v>0.05694749677261592</v>
       </c>
       <c r="D72">
-        <v>0.004170422116762999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.02788080757561433</v>
+      </c>
+      <c r="E72">
+        <v>-0.01530139306568313</v>
+      </c>
+      <c r="F72">
+        <v>0.07119950886398821</v>
+      </c>
+      <c r="G72">
+        <v>-0.03299011909046125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.4169113968255024</v>
+        <v>0.3477157885410753</v>
       </c>
       <c r="C73">
-        <v>-0.04982718118525351</v>
+        <v>0.07803944422999168</v>
       </c>
       <c r="D73">
-        <v>0.3348851801708657</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4609662763192918</v>
+      </c>
+      <c r="E73">
+        <v>0.4802676935568757</v>
+      </c>
+      <c r="F73">
+        <v>-0.2465204596995368</v>
+      </c>
+      <c r="G73">
+        <v>-0.1079181593406655</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1094204956725295</v>
+        <v>0.111366302638694</v>
       </c>
       <c r="C74">
-        <v>-0.09743250666780337</v>
+        <v>0.0977440069963426</v>
       </c>
       <c r="D74">
-        <v>-0.02020451102047982</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03093153571659943</v>
+      </c>
+      <c r="E74">
+        <v>-0.06536146136010561</v>
+      </c>
+      <c r="F74">
+        <v>0.04814307395847237</v>
+      </c>
+      <c r="G74">
+        <v>-0.07251128521484008</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2553557949589541</v>
+        <v>0.2577725534346008</v>
       </c>
       <c r="C75">
-        <v>-0.09970754118970727</v>
+        <v>0.1297938400802494</v>
       </c>
       <c r="D75">
-        <v>-0.08771850951189698</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1275548345799475</v>
+      </c>
+      <c r="E75">
+        <v>-0.07036981905228817</v>
+      </c>
+      <c r="F75">
+        <v>0.01663281072712868</v>
+      </c>
+      <c r="G75">
+        <v>-0.07344846538667914</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1138680152866413</v>
+        <v>0.127958083976934</v>
       </c>
       <c r="C76">
-        <v>-0.09000709845744115</v>
+        <v>0.09927956260678092</v>
       </c>
       <c r="D76">
-        <v>-0.04300309300887147</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05749046001110979</v>
+      </c>
+      <c r="E76">
+        <v>-0.0778952546654581</v>
+      </c>
+      <c r="F76">
+        <v>0.06933387062235233</v>
+      </c>
+      <c r="G76">
+        <v>-0.05618736843200866</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07936432339605065</v>
+        <v>0.06367368482656517</v>
       </c>
       <c r="C77">
-        <v>-0.06088214930672112</v>
+        <v>0.07382565561554193</v>
       </c>
       <c r="D77">
-        <v>0.05650482282636176</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06434049192332188</v>
+      </c>
+      <c r="E77">
+        <v>-0.09602067096141104</v>
+      </c>
+      <c r="F77">
+        <v>0.1064663809734039</v>
+      </c>
+      <c r="G77">
+        <v>0.1354143562161838</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04937465636492609</v>
+        <v>0.04390080790398518</v>
       </c>
       <c r="C78">
-        <v>-0.04971731974146176</v>
+        <v>0.06130924451638555</v>
       </c>
       <c r="D78">
-        <v>0.02604505942867845</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.06661572403023931</v>
+      </c>
+      <c r="E78">
+        <v>-0.04362354136009744</v>
+      </c>
+      <c r="F78">
+        <v>0.08413330092952565</v>
+      </c>
+      <c r="G78">
+        <v>-0.005098321951804728</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02657699174089034</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03919562009571245</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.06102488810912207</v>
+      </c>
+      <c r="E79">
+        <v>-0.05987144302515335</v>
+      </c>
+      <c r="F79">
+        <v>0.03539204329708151</v>
+      </c>
+      <c r="G79">
+        <v>-0.06797524281344412</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.04623460646350336</v>
+        <v>0.0345096500107635</v>
       </c>
       <c r="C80">
-        <v>-0.05431681634090686</v>
+        <v>0.05543369136111771</v>
       </c>
       <c r="D80">
-        <v>0.03141351743079722</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04447474035932074</v>
+      </c>
+      <c r="E80">
+        <v>-0.0160829881130475</v>
+      </c>
+      <c r="F80">
+        <v>0.03154680046044217</v>
+      </c>
+      <c r="G80">
+        <v>0.04707593588767787</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1408372958979871</v>
+        <v>0.1407323425450753</v>
       </c>
       <c r="C81">
-        <v>-0.07757055704940199</v>
+        <v>0.09386912943065473</v>
       </c>
       <c r="D81">
-        <v>-0.06693196421784571</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.100244756328853</v>
+      </c>
+      <c r="E81">
+        <v>-0.08512466575782583</v>
+      </c>
+      <c r="F81">
+        <v>0.01133498696652475</v>
+      </c>
+      <c r="G81">
+        <v>-0.05131260851745473</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1611225192567642</v>
+        <v>0.2030286147976351</v>
       </c>
       <c r="C82">
-        <v>-0.06937990009346567</v>
+        <v>0.137422220228769</v>
       </c>
       <c r="D82">
-        <v>-0.1585518401959142</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2353244918901507</v>
+      </c>
+      <c r="E82">
+        <v>-0.00594961481530519</v>
+      </c>
+      <c r="F82">
+        <v>0.104059344568216</v>
+      </c>
+      <c r="G82">
+        <v>-0.04825574690392256</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.04157192804836718</v>
+        <v>0.02822021840689109</v>
       </c>
       <c r="C83">
-        <v>-0.02642494197779363</v>
+        <v>0.0425904923228573</v>
       </c>
       <c r="D83">
-        <v>0.03180076048280626</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03402755531532502</v>
+      </c>
+      <c r="E83">
+        <v>-0.02013164825426256</v>
+      </c>
+      <c r="F83">
+        <v>0.03882470392588849</v>
+      </c>
+      <c r="G83">
+        <v>0.02216437810056949</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>2.183548494644532e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>8.756672627781925e-05</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.0002027307943861691</v>
+      </c>
+      <c r="E84">
+        <v>-0.0001210361867845293</v>
+      </c>
+      <c r="F84">
+        <v>0.0007590907078271626</v>
+      </c>
+      <c r="G84">
+        <v>-0.0004161660674633029</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2205008748888609</v>
+        <v>0.2037944655490425</v>
       </c>
       <c r="C85">
-        <v>-0.1020528089951614</v>
+        <v>0.1167989433558949</v>
       </c>
       <c r="D85">
-        <v>-0.1123180023581438</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.09737709137226422</v>
+      </c>
+      <c r="E85">
+        <v>0.0004414404156108696</v>
+      </c>
+      <c r="F85">
+        <v>-0.006610811354910292</v>
+      </c>
+      <c r="G85">
+        <v>-0.1242925494591618</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01115001210581258</v>
+        <v>0.01072010376525339</v>
       </c>
       <c r="C86">
-        <v>-0.04169241158352349</v>
+        <v>0.03235459312495256</v>
       </c>
       <c r="D86">
-        <v>0.04232133083415497</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.06568383571706198</v>
+      </c>
+      <c r="E86">
+        <v>-0.06428933793720303</v>
+      </c>
+      <c r="F86">
+        <v>0.1225648102506587</v>
+      </c>
+      <c r="G86">
+        <v>0.01666162901895748</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.0251252915780714</v>
+        <v>0.02280653268322164</v>
       </c>
       <c r="C87">
-        <v>-0.01012093078805926</v>
+        <v>0.0208502889072943</v>
       </c>
       <c r="D87">
-        <v>0.09384733403588745</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.0910376468016562</v>
+      </c>
+      <c r="E87">
+        <v>-0.11162655233917</v>
+      </c>
+      <c r="F87">
+        <v>0.06560852901786347</v>
+      </c>
+      <c r="G87">
+        <v>0.04002239592001726</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.1058636436374199</v>
+        <v>0.09292892204012081</v>
       </c>
       <c r="C88">
-        <v>-0.06696174081607047</v>
+        <v>0.06257810740849253</v>
       </c>
       <c r="D88">
-        <v>-0.02698942173858861</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.005332382424012993</v>
+      </c>
+      <c r="E88">
+        <v>-0.04450471420008789</v>
+      </c>
+      <c r="F88">
+        <v>0.06888766116255876</v>
+      </c>
+      <c r="G88">
+        <v>0.02784509344911257</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.176193724874147</v>
+        <v>0.2185865012199655</v>
       </c>
       <c r="C89">
-        <v>0.3823548106271987</v>
+        <v>-0.3800091466246162</v>
       </c>
       <c r="D89">
-        <v>-0.02273614837461204</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.005323545362870989</v>
+      </c>
+      <c r="E89">
+        <v>-0.06157362948667634</v>
+      </c>
+      <c r="F89">
+        <v>0.07522283288633201</v>
+      </c>
+      <c r="G89">
+        <v>0.06474587031516103</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1696498008634022</v>
+        <v>0.1986072749238086</v>
       </c>
       <c r="C90">
-        <v>0.3421192049102542</v>
+        <v>-0.3151073902064242</v>
       </c>
       <c r="D90">
-        <v>-0.02048435988732141</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01269709287012559</v>
+      </c>
+      <c r="E90">
+        <v>-0.07171450084001489</v>
+      </c>
+      <c r="F90">
+        <v>0.04200001097922788</v>
+      </c>
+      <c r="G90">
+        <v>0.01311295771196912</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1914981881252155</v>
+        <v>0.186063814047473</v>
       </c>
       <c r="C91">
-        <v>-0.1234326617031706</v>
+        <v>0.139825263313591</v>
       </c>
       <c r="D91">
-        <v>-0.08487060986931134</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1081936178578975</v>
+      </c>
+      <c r="E91">
+        <v>-0.06236232245265999</v>
+      </c>
+      <c r="F91">
+        <v>0.03658883124274834</v>
+      </c>
+      <c r="G91">
+        <v>-0.05744567132285099</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1606886764886303</v>
+        <v>0.1804811129116496</v>
       </c>
       <c r="C92">
-        <v>0.2919025210833958</v>
+        <v>-0.2861205147079149</v>
       </c>
       <c r="D92">
-        <v>-0.004240353964776567</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.004640466780413112</v>
+      </c>
+      <c r="E92">
+        <v>-0.07151289159043059</v>
+      </c>
+      <c r="F92">
+        <v>0.08358941949324587</v>
+      </c>
+      <c r="G92">
+        <v>0.01153617737276984</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1942777116736149</v>
+        <v>0.2222195704520679</v>
       </c>
       <c r="C93">
-        <v>0.3434781278468658</v>
+        <v>-0.3193121200275416</v>
       </c>
       <c r="D93">
-        <v>-0.01682673281388729</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.004284864259156623</v>
+      </c>
+      <c r="E93">
+        <v>-0.04655440012927257</v>
+      </c>
+      <c r="F93">
+        <v>0.04170787755613127</v>
+      </c>
+      <c r="G93">
+        <v>-0.02668232216506531</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.3417910830802535</v>
+        <v>0.344239965845793</v>
       </c>
       <c r="C94">
-        <v>-0.1365097681684742</v>
+        <v>0.1772441366847688</v>
       </c>
       <c r="D94">
-        <v>-0.4553021319190652</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.5069784672692463</v>
+      </c>
+      <c r="E94">
+        <v>-0.04309479378464783</v>
+      </c>
+      <c r="F94">
+        <v>-0.4511797425893562</v>
+      </c>
+      <c r="G94">
+        <v>0.3187779713989929</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1120109084822828</v>
+        <v>0.08538251147324583</v>
       </c>
       <c r="C95">
-        <v>-0.07907292358171145</v>
+        <v>0.06889955500441187</v>
       </c>
       <c r="D95">
-        <v>0.1313432791880172</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1696472381552229</v>
+      </c>
+      <c r="E95">
+        <v>0.1039244265977957</v>
+      </c>
+      <c r="F95">
+        <v>0.2070896911135745</v>
+      </c>
+      <c r="G95">
+        <v>0.8719953383459152</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1983808112168679</v>
+        <v>0.1886199183039959</v>
       </c>
       <c r="C98">
-        <v>-0.01469760047434115</v>
+        <v>0.04091261670632982</v>
       </c>
       <c r="D98">
-        <v>0.1297292125035589</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1843877300342489</v>
+      </c>
+      <c r="E98">
+        <v>0.1526693317600515</v>
+      </c>
+      <c r="F98">
+        <v>-0.03474670690548555</v>
+      </c>
+      <c r="G98">
+        <v>-0.09694479899989063</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.007376744470749081</v>
+        <v>0.00598330193545479</v>
       </c>
       <c r="C101">
-        <v>-0.0309138766201838</v>
+        <v>0.02862482831446648</v>
       </c>
       <c r="D101">
-        <v>-0.01735353477797144</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01948137110615413</v>
+      </c>
+      <c r="E101">
+        <v>-0.03792261164255099</v>
+      </c>
+      <c r="F101">
+        <v>0.08599046408562548</v>
+      </c>
+      <c r="G101">
+        <v>-0.005787547567998066</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1229261391325654</v>
+        <v>0.1249054842178106</v>
       </c>
       <c r="C102">
-        <v>-0.07067640645016758</v>
+        <v>0.09670773459139144</v>
       </c>
       <c r="D102">
-        <v>-0.02699315404432266</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.04637646163982637</v>
+      </c>
+      <c r="E102">
+        <v>0.002292061721219149</v>
+      </c>
+      <c r="F102">
+        <v>0.04622598349509981</v>
+      </c>
+      <c r="G102">
+        <v>-0.01771192942832783</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
